--- a/REVER_DailyTracker_20201014.xlsx
+++ b/REVER_DailyTracker_20201014.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\Daily_Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eswar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BFBB7D-A0D0-4E75-80EB-C4D59B77A772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F07803F-A15D-4496-9F4D-6B339874BADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2172" yWindow="1044" windowWidth="17928" windowHeight="10860" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="98">
   <si>
     <t>Task</t>
   </si>
@@ -322,6 +322,18 @@
   </si>
   <si>
     <t>1) Contact Card 2 samples designed                                      2) QMVAR - 2pages design completed</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site &amp; Regression testing on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site, Retesting on B2B app &amp; Regression testing on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site, Retesting &amp; Regression testing on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site. Regression testing on B2C app and Hayaai site</t>
   </si>
 </sst>
 </file>
@@ -490,7 +502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -625,6 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -946,15 +959,15 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="82.6640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.7109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -978,7 +991,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1051,7 +1064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A6" s="47">
         <v>4</v>
       </c>
@@ -1153,7 +1166,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="D14" s="50" t="s">
         <v>41</v>
       </c>
@@ -1164,7 +1177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="D15" s="50" t="s">
         <v>43</v>
       </c>
@@ -1281,7 +1294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8">
+    <row r="33" spans="1:6" ht="30">
       <c r="A33">
         <v>11</v>
       </c>
@@ -1346,15 +1359,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1457,15 +1470,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1567,15 +1580,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1835,19 +1848,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1955,7 +1968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="216">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="225">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1989,7 +2002,7 @@
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2009,7 +2022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2078,19 +2091,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2182,7 +2195,7 @@
       <c r="F5" s="56"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -2203,7 +2216,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -2224,7 +2237,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -2266,7 +2279,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -2359,7 +2372,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -2424,15 +2437,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2535,15 +2548,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="30.21875" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2569,7 +2582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2592,7 +2605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8">
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2615,7 +2628,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2638,7 +2651,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2661,7 +2674,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2684,7 +2697,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2707,7 +2720,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2730,7 +2743,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2806,15 +2819,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -3007,15 +3020,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3114,19 +3127,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3152,7 +3165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2">
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3218,7 +3231,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="43.2">
+    <row r="6" spans="1:7" ht="45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3231,30 +3244,195 @@
       <c r="D6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="39">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="20" spans="2:3" s="4" customFormat="1"/>
-    <row r="21" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3" s="4" customFormat="1"/>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="31">
+        <v>44110</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31">
+        <v>44111</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31">
+        <v>44112</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="45">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="31">
+        <v>44113</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31">
+        <v>44114</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="31">
+        <v>44115</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="45">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="31">
+        <v>44116</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="45">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="31">
+        <v>44117</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="45">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="31">
+        <v>44118</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
     <row r="25" spans="2:3">
       <c r="C25" s="12" t="s">
         <v>1</v>

--- a/REVER_DailyTracker_20201014.xlsx
+++ b/REVER_DailyTracker_20201014.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eswar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\October\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F07803F-A15D-4496-9F4D-6B339874BADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43130575-65EA-46D8-A114-559C04222A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="55">
   <si>
     <t>Task</t>
   </si>
@@ -197,143 +197,10 @@
     <t xml:space="preserve">3. RPA Demo prepared and tested for the RLOGIC </t>
   </si>
   <si>
-    <t xml:space="preserve"> Selenium log file, SONY SID, QMVAR Setup File Create</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, QMVAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, EMP_RegLogin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, Sony SID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, Sony SID, QMVAR Recovery(CSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> best_search_all8, best_report_all8, SID Sony </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, QMVAR Setup File Create, QMVAR CSS </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, MrMax import File Check, QMVAR CSS </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, Employee RegLogin Application</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, SONY SID (export import checking)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, CSS QMVAR (Recovery Menu), Sony File Export</t>
-  </si>
-  <si>
-    <t>Sony SID Issue File Checking</t>
-  </si>
-  <si>
-    <t>QMVAR CSS Progress</t>
-  </si>
-  <si>
-    <t>Salary tab Page (Modification) Add Column</t>
-  </si>
-  <si>
-    <t>Employee RegLogin Application All Pages design Changes(Personal Info, Education &amp; experience , Bank Details Completed) tabs Completed</t>
-  </si>
-  <si>
-    <t>Sony Daily RepairSetNp, LogFile Selenium</t>
-  </si>
-  <si>
-    <t>Sony Export,LogFile Selenium</t>
-  </si>
-  <si>
-    <t>QMVAR-RPA</t>
-  </si>
-  <si>
-    <t>InvoiceUpdate IW/OW error correction</t>
-  </si>
-  <si>
-    <t>HAYAAI-B2B</t>
-  </si>
-  <si>
-    <t>New API for inserting job sheet details for Pickup</t>
-  </si>
-  <si>
-    <t>wip</t>
-  </si>
-  <si>
-    <t>Correction Job Details API to get Pickup Ack information</t>
-  </si>
-  <si>
-    <t>HAYAAI-B2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In /instantfix/create and instantfix/update:
-Have added  "warranty_type":"OUT" ,so please pass this argument to this APIs,
-Also in Service request have updated job_id also now status would Requested instead of Job_in_progress,also Warranty_type is stored in RST_JOB
-Also in updateimei-&gt; API whatever parameters are passed it is stored in warranty information,the one as same as in add devices
-</t>
-  </si>
-  <si>
-    <t>Leave</t>
-  </si>
-  <si>
-    <t>Corrected Job details API and created new API for JobSheet.Also Created new API for technician reaching customer Place</t>
-  </si>
-  <si>
-    <t>13/10/2020</t>
-  </si>
-  <si>
-    <t>Worked on to overcome the security certificate confirmation through Windows registry Key</t>
-  </si>
-  <si>
-    <t>Application- Login page and Front end  sample Layout design. Sample completed</t>
-  </si>
-  <si>
-    <t>Application- Front end  sample 2nd Layout design. Sample completed</t>
-  </si>
-  <si>
-    <t>QMVAR , Hayaai</t>
-  </si>
-  <si>
-    <t>Application- login design and Hayaai Flyer design</t>
-  </si>
-  <si>
-    <t>Hayaai</t>
-  </si>
-  <si>
-    <t>Two sample Flyer design</t>
-  </si>
-  <si>
-    <t>1) Flyer design completed                                                                                       2) ID card created                                                                            3) Name card created</t>
-  </si>
-  <si>
-    <t>Analysis - File Upload - Design completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hayaai </t>
-  </si>
-  <si>
-    <t>Website Translation replaced in php file</t>
-  </si>
-  <si>
-    <t>Hayaai ,QMVAR</t>
-  </si>
-  <si>
-    <t>1) Contact Card 2 samples designed                                      2) QMVAR - 2pages design completed</t>
-  </si>
-  <si>
-    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site &amp; Regression testing on B2C app and Hayaai site</t>
-  </si>
-  <si>
-    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site, Retesting on B2B app &amp; Regression testing on B2C app and Hayaai site</t>
-  </si>
-  <si>
-    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site, Retesting &amp; Regression testing on B2C app and Hayaai site</t>
-  </si>
-  <si>
-    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site. Regression testing on B2C app and Hayaai site</t>
+    <t>1. Supported/Prepared for Demo Presentation</t>
+  </si>
+  <si>
+    <t>2. Correction work supported to Daily task of schedule_report for record count, and upload issue</t>
   </si>
 </sst>
 </file>
@@ -343,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,12 +258,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -502,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -616,28 +477,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -953,21 +792,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="82.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="82.6640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -991,7 +830,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1064,7 +903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="A6" s="47">
         <v>4</v>
       </c>
@@ -1166,7 +1005,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D14" s="50" t="s">
         <v>41</v>
       </c>
@@ -1177,7 +1016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="50" t="s">
         <v>43</v>
       </c>
@@ -1294,7 +1133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30">
+    <row r="33" spans="1:6" ht="28.8">
       <c r="A33">
         <v>11</v>
       </c>
@@ -1343,6 +1182,46 @@
       </c>
       <c r="F35" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37" s="52">
+        <v>44118</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="28">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>14</v>
+      </c>
+      <c r="B38" s="52">
+        <v>44118</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1359,15 +1238,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1470,15 +1349,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1580,15 +1459,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1848,604 +1727,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43840</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33">
-        <v>43961</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="52">
-        <v>43992</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="28">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="52">
-        <v>44022</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="28">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="225">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="52">
-        <v>44053</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="28">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="52">
-        <v>44084</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="52">
-        <v>44175</v>
-      </c>
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="28">
-        <v>0.8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="28">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="54">
-        <v>44106</v>
-      </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="42"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="26">
-        <v>3</v>
-      </c>
-      <c r="B4" s="54">
-        <v>44107</v>
-      </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="26">
-        <v>4</v>
-      </c>
-      <c r="B5" s="54">
-        <v>44108</v>
-      </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21">
-        <v>44109</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="22">
-        <v>1</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21">
-        <v>44110</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21">
-        <v>44111</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="20">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21">
-        <v>44112</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="F9" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A10" s="20">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21">
-        <v>44113</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="26">
-        <v>10</v>
-      </c>
-      <c r="B11" s="54">
-        <v>44114</v>
-      </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="26">
-        <v>11</v>
-      </c>
-      <c r="B12" s="54">
-        <v>44115</v>
-      </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="20">
-        <v>12</v>
-      </c>
-      <c r="B13" s="21">
-        <v>44116</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="22">
-        <v>1</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14" s="20">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21">
-        <v>44117</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A15" s="20">
-        <v>14</v>
-      </c>
-      <c r="B15" s="21">
-        <v>44118</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="22">
-        <v>1</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2540,23 +1834,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G26"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2582,289 +1876,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="21">
         <v>44105</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="32">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44109</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="32">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21">
-        <v>44110</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="32">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21">
-        <v>44111</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="32">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21">
-        <v>44112</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="32">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21">
-        <v>44113</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="32">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21">
-        <v>44116</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="32">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21">
-        <v>44117</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="32">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="22">
         <v>1</v>
@@ -2874,93 +1897,11 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="31">
-        <v>44106</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="31">
-        <v>44107</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="31">
-        <v>44108</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="31">
-        <v>44109</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="40"/>
-    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
     <row r="9" spans="1:7" s="4" customFormat="1"/>
     <row r="10" spans="1:7" s="4" customFormat="1"/>
@@ -2970,39 +1911,32 @@
     <row r="14" spans="1:7" s="4" customFormat="1"/>
     <row r="15" spans="1:7" s="4" customFormat="1"/>
     <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="43" t="s">
-        <v>3</v>
-      </c>
+      <c r="B23" s="11"/>
       <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3012,23 +1946,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3123,23 +2057,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
-  <dimension ref="A1:G29"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3165,7 +2099,444 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="28">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="31">
+        <v>44106</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31">
+        <v>44107</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31">
+        <v>44108</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31">
+        <v>44109</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3231,7 +2602,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:7" ht="43.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3244,195 +2615,30 @@
       <c r="D6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="45">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="31">
-        <v>44110</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="45">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="31">
-        <v>44111</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="45">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="31">
-        <v>44112</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="45">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="31">
-        <v>44113</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="31">
-        <v>44114</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="31">
-        <v>44115</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="45">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="31">
-        <v>44116</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="45">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="31">
-        <v>44117</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="45">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="31">
-        <v>44118</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
+      <c r="E6" s="39">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="20" spans="2:3" s="4" customFormat="1"/>
+    <row r="21" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3" s="4" customFormat="1"/>
     <row r="25" spans="2:3">
       <c r="C25" s="12" t="s">
         <v>1</v>

--- a/REVER_DailyTracker_20201014.xlsx
+++ b/REVER_DailyTracker_20201014.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\October\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43130575-65EA-46D8-A114-559C04222A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074D9026-B9F8-4699-9623-69B7E900666B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="58">
   <si>
     <t>Task</t>
   </si>
@@ -201,6 +201,15 @@
   </si>
   <si>
     <t>2. Correction work supported to Daily task of schedule_report for record count, and upload issue</t>
+  </si>
+  <si>
+    <t>DRS Count - Saw Discount changes and Issue</t>
+  </si>
+  <si>
+    <t>DRS Count - Saw Discount Summary &amp; Details</t>
+  </si>
+  <si>
+    <t>DRS - Daily Revenue</t>
   </si>
 </sst>
 </file>
@@ -210,7 +219,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +270,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -363,7 +378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -477,6 +492,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,19 +812,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="82.6640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.7109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -830,7 +848,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -903,7 +921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A6" s="47">
         <v>4</v>
       </c>
@@ -1005,7 +1023,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="D14" s="50" t="s">
         <v>41</v>
       </c>
@@ -1016,7 +1034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="D15" s="50" t="s">
         <v>43</v>
       </c>
@@ -1133,7 +1151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8">
+    <row r="33" spans="1:6" ht="30">
       <c r="A33">
         <v>11</v>
       </c>
@@ -1204,7 +1222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="30">
       <c r="A38">
         <v>14</v>
       </c>
@@ -1238,15 +1256,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1349,15 +1367,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1455,19 +1473,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1536,75 +1554,171 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33">
+        <v>44109</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33">
+        <v>44110</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33">
+        <v>44111</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33">
+        <v>44112</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33">
+        <v>44113</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33">
+        <v>44116</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33">
+        <v>44117</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33">
+        <v>44118</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1">
@@ -1731,15 +1845,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1842,15 +1956,15 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1954,15 +2068,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2065,15 +2179,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2099,7 +2213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2190,15 +2304,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -2391,15 +2505,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2502,15 +2616,15 @@
       <selection activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2536,7 +2650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2">
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2602,7 +2716,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="43.2">
+    <row r="6" spans="1:7" ht="45">
       <c r="A6" s="1">
         <v>5</v>
       </c>

--- a/REVER_DailyTracker_20201014.xlsx
+++ b/REVER_DailyTracker_20201014.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074D9026-B9F8-4699-9623-69B7E900666B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B600C34-F14F-4051-9279-3D474C25D5E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="73">
   <si>
     <t>Task</t>
   </si>
@@ -210,6 +210,57 @@
   </si>
   <si>
     <t>DRS - Daily Revenue</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>InvoiceUpdate IW/OW error correction</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2B</t>
+  </si>
+  <si>
+    <t>New API for inserting job sheet details for Pickup</t>
+  </si>
+  <si>
+    <t>wip</t>
+  </si>
+  <si>
+    <t>Correction Job Details API to get Pickup Ack information</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In /instantfix/create and instantfix/update:
+Have added  "warranty_type":"OUT" ,so please pass this argument to this APIs,
+Also in Service request have updated job_id also now status would Requested instead of Job_in_progress,also Warranty_type is stored in RST_JOB
+Also in updateimei-&gt; API whatever parameters are passed it is stored in warranty information,the one as same as in add devices
+</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Corrected Job details API and created new API for JobSheet.Also Created new API for technician reaching customer Place</t>
+  </si>
+  <si>
+    <t>13/10/2020</t>
+  </si>
+  <si>
+    <t>Worked on to overcome the security certificate confirmation through Windows registry Key</t>
+  </si>
+  <si>
+    <t>14/10/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAYAAI-B2B </t>
+  </si>
+  <si>
+    <t>To display JobSheet details in B2C ,Repairs tab,
+First call userissues API,in which you will get eq_stock_id.
+Pass that eq_Stock_id to this new acknowldgesheet API</t>
   </si>
 </sst>
 </file>
@@ -219,7 +270,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +327,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF262626"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -378,7 +435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -494,6 +551,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -816,15 +879,15 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="82.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="82.6640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -848,7 +911,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -921,7 +984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="A6" s="47">
         <v>4</v>
       </c>
@@ -1023,7 +1086,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D14" s="50" t="s">
         <v>41</v>
       </c>
@@ -1034,7 +1097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="50" t="s">
         <v>43</v>
       </c>
@@ -1151,7 +1214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30">
+    <row r="33" spans="1:6" ht="28.8">
       <c r="A33">
         <v>11</v>
       </c>
@@ -1222,7 +1285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>14</v>
       </c>
@@ -1256,15 +1319,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1367,15 +1430,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1473,19 +1536,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1839,21 +1902,398 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33">
+        <v>43840</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="32">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="45">
+        <v>43961</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="45">
+        <v>43992</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="46">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="45">
+        <v>44022</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="46">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="216">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45">
+        <v>44053</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="46">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="45">
+        <v>44084</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="45">
+        <v>44175</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="46">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="51">
+      <c r="A10" s="47">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="D12" s="55"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="D14" s="55"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="21" spans="2:3">
+      <c r="C21" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="8"/>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="9"/>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="10"/>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="11"/>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1948,23 +2388,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1990,126 +2430,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="21">
         <v>44105</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="28">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -2171,23 +2513,224 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="31">
+        <v>44106</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31">
+        <v>44107</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31">
+        <v>44108</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31">
+        <v>44109</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2213,28 +2756,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="28">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>18</v>
-      </c>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -2296,318 +2825,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="31">
-        <v>44106</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="31">
-        <v>44107</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="31">
-        <v>44108</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="31">
-        <v>44109</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G29"/>
@@ -2616,15 +2833,15 @@
       <selection activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2650,7 +2867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="43.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2716,7 +2933,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:7" ht="43.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
